--- a/raw_data/list_of_studies_updated_201215.xlsx
+++ b/raw_data/list_of_studies_updated_201215.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer_Sunday/Dropbox/UW_Schmidt/data_analysis/UW_downscaled_sensitivies/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D09A8-725A-D545-A34D-1CD248638CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F2BAA-5AF8-D84C-9A88-95ACBB3DED70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{4BC252F6-9EBE-CA48-856E-7AC9B5E97A9F}"/>
+    <workbookView xWindow="15520" yWindow="7620" windowWidth="27400" windowHeight="23460" xr2:uid="{4BC252F6-9EBE-CA48-856E-7AC9B5E97A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="172">
   <si>
     <t>English_Name</t>
   </si>
@@ -574,6 +574,21 @@
   </si>
   <si>
     <t>new - but thesis, and no data from which to calculate error</t>
+  </si>
+  <si>
+    <t>new - but this is an indirect effect through grazing - GREAT study but I think we should leave it out</t>
+  </si>
+  <si>
+    <t>Roleda et al</t>
+  </si>
+  <si>
+    <t>Leal et al</t>
+  </si>
+  <si>
+    <t>new found within</t>
+  </si>
+  <si>
+    <t>new - but didn't do salinity</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A6C2D6-D9B5-6E44-80AD-1062F2CF29DF}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2215,7 +2230,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
         <v>158</v>
@@ -2241,7 +2256,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
         <v>158</v>
@@ -2267,7 +2282,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
         <v>158</v>
@@ -2697,203 +2712,231 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="17">
-      <c r="A68" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F68" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="17">
-      <c r="A69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="17">
-      <c r="A70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="17">
-      <c r="A71" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
-        <v>146</v>
-      </c>
-      <c r="H71">
-        <v>2013</v>
-      </c>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>152</v>
-      </c>
-      <c r="H72">
-        <v>1975</v>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>168</v>
+      </c>
+      <c r="H65">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>169</v>
+      </c>
+      <c r="H66">
+        <v>2017</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="17">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="17">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>145</v>
+      </c>
+      <c r="H75">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="17">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>145</v>
+      </c>
+      <c r="H76">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="17">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>146</v>
+      </c>
+      <c r="H77">
+        <v>2013</v>
+      </c>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
         <v>128</v>
       </c>
-      <c r="B73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" t="s">
+        <v>152</v>
+      </c>
+      <c r="H78">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D79" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="12" t="s">
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H79" s="10">
         <v>2020</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="9" t="s">
+      <c r="I79" s="10"/>
+      <c r="J79" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="K73" s="10"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="8" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E80" t="s">
         <v>149</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G80" t="s">
         <v>153</v>
       </c>
-      <c r="K74" s="10"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="D75" s="10"/>
-      <c r="G75" t="s">
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="D81" s="10"/>
+      <c r="G81" t="s">
         <v>154</v>
       </c>
-      <c r="K75" s="11"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="D78" s="10"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="D80" s="10"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
